--- a/Sprint2/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint2/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanketpatidar/Desktop/CS 555/Agile Github/CS-555-Agile_Project_Team/Sprint1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vedadnya_98/Documents/GitHub/CS-555-Agile_Project_Team/Sprint2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B833FB-F7EC-F64B-9937-AE302D711D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FBDE86-E74C-C54D-B79B-BDC0C6C9BF8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="249">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -797,6 +797,30 @@
   </si>
   <si>
     <t>06-11.</t>
+  </si>
+  <si>
+    <t>parser.py</t>
+  </si>
+  <si>
+    <t>us17()</t>
+  </si>
+  <si>
+    <t>us18()</t>
+  </si>
+  <si>
+    <t>235-251</t>
+  </si>
+  <si>
+    <t>261-273</t>
+  </si>
+  <si>
+    <t>test_userstory17()</t>
+  </si>
+  <si>
+    <t>test_userstory18()</t>
+  </si>
+  <si>
+    <t>14-16</t>
   </si>
 </sst>
 </file>
@@ -2201,7 +2225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2333,8 +2357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2697,7 +2721,7 @@
         <v>186</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -2714,7 +2738,7 @@
         <v>186</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="F23" s="33"/>
     </row>
@@ -3687,7 +3711,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3761,6 +3785,12 @@
       <c r="F2">
         <v>120</v>
       </c>
+      <c r="J2" t="s">
+        <v>241</v>
+      </c>
+      <c r="M2" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
@@ -3781,6 +3811,12 @@
       <c r="F3">
         <v>120</v>
       </c>
+      <c r="J3" t="s">
+        <v>241</v>
+      </c>
+      <c r="M3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
@@ -3801,6 +3837,12 @@
       <c r="F4">
         <v>120</v>
       </c>
+      <c r="J4" t="s">
+        <v>241</v>
+      </c>
+      <c r="M4" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
@@ -3821,6 +3863,12 @@
       <c r="F5">
         <v>120</v>
       </c>
+      <c r="J5" t="s">
+        <v>241</v>
+      </c>
+      <c r="M5" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
@@ -3841,6 +3889,33 @@
       <c r="F6">
         <v>120</v>
       </c>
+      <c r="G6">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>206</v>
+      </c>
+      <c r="J6" t="s">
+        <v>241</v>
+      </c>
+      <c r="K6" t="s">
+        <v>242</v>
+      </c>
+      <c r="L6" t="s">
+        <v>244</v>
+      </c>
+      <c r="M6" t="s">
+        <v>212</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
@@ -3861,6 +3936,33 @@
       <c r="F7">
         <v>120</v>
       </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>206</v>
+      </c>
+      <c r="J7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M7" t="s">
+        <v>212</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="30" t="s">
@@ -3881,6 +3983,12 @@
       <c r="F8">
         <v>120</v>
       </c>
+      <c r="J8" t="s">
+        <v>241</v>
+      </c>
+      <c r="M8" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="30" t="s">
@@ -3900,6 +4008,12 @@
       </c>
       <c r="F9">
         <v>120</v>
+      </c>
+      <c r="J9" t="s">
+        <v>241</v>
+      </c>
+      <c r="M9" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint2/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint2/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vedadnya_98/Documents/GitHub/CS-555-Agile_Project_Team/Sprint2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parthxparab/Documents/Spring2020/CS555/Project04/CS-555-Agile_Project_Team/Sprint2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FBDE86-E74C-C54D-B79B-BDC0C6C9BF8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090CFFED-F994-1748-965C-BB461D3137B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -44,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="257">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -821,6 +819,30 @@
   </si>
   <si>
     <t>14-16</t>
+  </si>
+  <si>
+    <t>US09()</t>
+  </si>
+  <si>
+    <t>US10()</t>
+  </si>
+  <si>
+    <t>551-574</t>
+  </si>
+  <si>
+    <t>526-547</t>
+  </si>
+  <si>
+    <t>test_userstory09()</t>
+  </si>
+  <si>
+    <t>test_userstory10()</t>
+  </si>
+  <si>
+    <t>30-32</t>
+  </si>
+  <si>
+    <t>34-36</t>
   </si>
 </sst>
 </file>
@@ -2225,7 +2247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2358,7 +2380,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2435,7 +2457,7 @@
         <v>182</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -2452,7 +2474,7 @@
         <v>182</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -2964,7 +2986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="150" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
@@ -3235,7 +3257,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:O1"/>
+      <selection activeCell="E2" sqref="E2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3710,13 +3732,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="13" max="13" width="18.5" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14" x14ac:dyDescent="0.15">
@@ -3777,19 +3801,40 @@
         <v>182</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E2">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F2">
-        <v>120</v>
+        <v>600</v>
+      </c>
+      <c r="G2">
+        <v>27</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="J2" t="s">
         <v>241</v>
       </c>
+      <c r="K2" t="s">
+        <v>249</v>
+      </c>
+      <c r="L2" t="s">
+        <v>251</v>
+      </c>
       <c r="M2" t="s">
         <v>212</v>
+      </c>
+      <c r="N2" t="s">
+        <v>253</v>
+      </c>
+      <c r="O2" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -3803,19 +3848,40 @@
         <v>182</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F3">
-        <v>120</v>
+        <v>600</v>
+      </c>
+      <c r="G3">
+        <v>21</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="J3" t="s">
         <v>241</v>
       </c>
+      <c r="K3" t="s">
+        <v>250</v>
+      </c>
+      <c r="L3" t="s">
+        <v>252</v>
+      </c>
       <c r="M3" t="s">
         <v>212</v>
+      </c>
+      <c r="N3" t="s">
+        <v>254</v>
+      </c>
+      <c r="O3" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -4117,7 +4183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B36" sqref="B36:B37"/>
     </sheetView>
   </sheetViews>

--- a/Sprint2/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint2/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranavnair/Desktop/CS-555-Agile_Project_Team/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanketpatidar/Desktop/CS 555/Github repositories/CS-555-Agile_Project_Team/Sprint2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9837C9B8-7F19-0F42-9435-9E60C8F0B660}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54AC861-6126-574D-BAB3-A96D9E0E5B85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="27960" windowHeight="15800" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="27960" windowHeight="15800" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="265">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -843,6 +845,30 @@
   </si>
   <si>
     <t>81-83</t>
+  </si>
+  <si>
+    <t>US36()</t>
+  </si>
+  <si>
+    <t>US35()</t>
+  </si>
+  <si>
+    <t>test_userstory35()</t>
+  </si>
+  <si>
+    <t>test_userstory36()</t>
+  </si>
+  <si>
+    <t>515-529</t>
+  </si>
+  <si>
+    <t>535-550</t>
+  </si>
+  <si>
+    <t>61-64</t>
+  </si>
+  <si>
+    <t>66-69</t>
   </si>
 </sst>
 </file>
@@ -2379,8 +2405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2600,7 +2626,7 @@
         <v>185</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -2617,7 +2643,7 @@
         <v>185</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -2986,7 +3012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
@@ -3732,13 +3758,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14" x14ac:dyDescent="0.15">
@@ -3851,7 +3879,7 @@
         <v>185</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E4">
         <v>60</v>
@@ -3859,11 +3887,32 @@
       <c r="F4">
         <v>120</v>
       </c>
+      <c r="G4">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>206</v>
+      </c>
       <c r="J4" t="s">
         <v>241</v>
       </c>
+      <c r="K4" t="s">
+        <v>258</v>
+      </c>
+      <c r="L4" t="s">
+        <v>261</v>
+      </c>
       <c r="M4" t="s">
         <v>212</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
@@ -3877,7 +3926,7 @@
         <v>185</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E5">
         <v>60</v>
@@ -3885,11 +3934,32 @@
       <c r="F5">
         <v>120</v>
       </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>206</v>
+      </c>
       <c r="J5" t="s">
         <v>241</v>
       </c>
+      <c r="K5" t="s">
+        <v>257</v>
+      </c>
+      <c r="L5" t="s">
+        <v>262</v>
+      </c>
       <c r="M5" t="s">
         <v>212</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
@@ -3903,7 +3973,7 @@
         <v>186</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E6">
         <v>60</v>
@@ -3950,7 +4020,7 @@
         <v>186</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E7">
         <v>60</v>
@@ -4181,7 +4251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>

--- a/Sprint2/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint2/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanketpatidar/Desktop/CS 555/Github repositories/CS-555-Agile_Project_Team/Sprint2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parthxparab/Documents/Spring2020/CS555/Project04/CS-555-Agile_Project_Team/Sprint2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54AC861-6126-574D-BAB3-A96D9E0E5B85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D229C22-CF8C-CA46-9F48-4AD31BE357DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="27960" windowHeight="15800" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -44,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="273">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -869,6 +867,30 @@
   </si>
   <si>
     <t>66-69</t>
+  </si>
+  <si>
+    <t>US09()</t>
+  </si>
+  <si>
+    <t>US10()</t>
+  </si>
+  <si>
+    <t>667-692</t>
+  </si>
+  <si>
+    <t>636-661</t>
+  </si>
+  <si>
+    <t>test_userstory09()</t>
+  </si>
+  <si>
+    <t>test_userstory10()</t>
+  </si>
+  <si>
+    <t>38-41</t>
+  </si>
+  <si>
+    <t>43-46</t>
   </si>
 </sst>
 </file>
@@ -2405,8 +2427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2483,7 +2505,7 @@
         <v>182</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -2500,7 +2522,7 @@
         <v>182</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -3012,7 +3034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
@@ -3758,8 +3780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3827,7 +3849,7 @@
         <v>182</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E2">
         <v>60</v>
@@ -3835,11 +3857,32 @@
       <c r="F2">
         <v>120</v>
       </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>206</v>
+      </c>
       <c r="J2" t="s">
         <v>241</v>
       </c>
+      <c r="K2" t="s">
+        <v>265</v>
+      </c>
+      <c r="L2" t="s">
+        <v>267</v>
+      </c>
       <c r="M2" t="s">
         <v>212</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -3853,7 +3896,7 @@
         <v>182</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E3">
         <v>60</v>
@@ -3861,11 +3904,32 @@
       <c r="F3">
         <v>120</v>
       </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>206</v>
+      </c>
       <c r="J3" t="s">
         <v>241</v>
       </c>
+      <c r="K3" t="s">
+        <v>266</v>
+      </c>
+      <c r="L3" t="s">
+        <v>268</v>
+      </c>
       <c r="M3" t="s">
         <v>212</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">

--- a/Sprint2/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint2/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parthxparab/Documents/Spring2020/CS555/Project04/CS-555-Agile_Project_Team/Sprint2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranavnair/Desktop/CS-555-Agile_Project_Team/Sprint2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D229C22-CF8C-CA46-9F48-4AD31BE357DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B729560-C19F-E542-8A70-37D6EB749054}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2600" yWindow="460" windowWidth="24700" windowHeight="15940" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="277">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -891,6 +891,18 @@
   </si>
   <si>
     <t>43-46</t>
+  </si>
+  <si>
+    <t>Sprint1</t>
+  </si>
+  <si>
+    <t>Sprint2</t>
+  </si>
+  <si>
+    <t>Sprint3</t>
+  </si>
+  <si>
+    <t>Sprint4</t>
   </si>
 </sst>
 </file>
@@ -1381,31 +1393,42 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Burndown!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>m/d</c:formatCode>
-                <c:ptCount val="6"/>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>42411</c:v>
+                  <c:v>Start</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42423</c:v>
+                  <c:v>Sprint1</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="2">
+                  <c:v>Sprint2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sprint4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Burndown!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>42415</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>42429</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42450</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1430,23 +1453,24 @@
         <c:axId val="1158123744"/>
         <c:axId val="1158126064"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="1158123744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1158126064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="1158126064"/>
         <c:scaling>
@@ -1455,7 +1479,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1542,8 +1566,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1425786" y="533401"/>
-          <a:ext cx="1317413" cy="643466"/>
+          <a:off x="1298786" y="1549401"/>
+          <a:ext cx="1207347" cy="643466"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -2427,7 +2451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -3034,8 +3058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3137,10 +3161,7 @@
       <c r="F16" s="14">
         <v>120</v>
       </c>
-      <c r="G16" s="9">
-        <f>(E16-E15)/F16*60</f>
-        <v>125.00000000000001</v>
-      </c>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
@@ -3226,10 +3247,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3241,55 +3262,101 @@
     <col min="6" max="6" width="14.33203125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
-        <v>42411</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="32">
+        <v>42415</v>
+      </c>
+      <c r="C2">
         <v>32</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>42423</v>
-      </c>
-      <c r="B3">
+      <c r="F2"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="2">
+        <v>42429</v>
+      </c>
+      <c r="C3">
         <v>24</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>238</v>
-      </c>
       <c r="E3">
-        <v>280</v>
-      </c>
-      <c r="F3" s="9">
-        <v>50.96</v>
+        <v>523</v>
+      </c>
+      <c r="F3">
+        <v>240</v>
+      </c>
+      <c r="G3" s="9">
+        <f>(E3-E2)/F3*60</f>
+        <v>130.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="7">
+        <v>42450</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>785</v>
+      </c>
+      <c r="F4" s="9">
+        <v>200</v>
+      </c>
+      <c r="G4" s="9">
+        <f>(E4-E3)/F4*60</f>
+        <v>78.600000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3304,8 +3371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:O1"/>
+    <sheetView topLeftCell="D1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3780,8 +3847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/Sprint2/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint2/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parthxparab/Documents/Spring2020/CS555/Project04/CS-555-Agile_Project_Team/Sprint2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D229C22-CF8C-CA46-9F48-4AD31BE357DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CF732A-A96A-464E-B4EB-D98D7F57D418}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="277">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -891,6 +891,18 @@
   </si>
   <si>
     <t>43-46</t>
+  </si>
+  <si>
+    <t>Communicating and discussing progress, practising pair programming</t>
+  </si>
+  <si>
+    <t>Starting project late</t>
+  </si>
+  <si>
+    <t>Communicating and discussing progress, practising pair programming and understanding concepts more clearly</t>
+  </si>
+  <si>
+    <t>Starting project late, Take more time to complete User stories</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1096,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1138,6 +1150,7 @@
     <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2295,7 +2308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2427,7 +2440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -3305,14 +3318,14 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:O1"/>
+      <selection activeCell="A14" sqref="A14:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.1640625" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
     <col min="6" max="6" width="10.1640625" customWidth="1"/>
@@ -3759,14 +3772,20 @@
       <c r="B15" s="5"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" ht="67" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="5" t="s">
         <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3778,15 +3797,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" customWidth="1"/>
     <col min="14" max="14" width="17.6640625" customWidth="1"/>
   </cols>
@@ -4212,6 +4232,39 @@
       </c>
       <c r="O9" s="23" t="s">
         <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="B20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4223,13 +4276,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A8" sqref="A8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
@@ -4258,6 +4315,166 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2">
+        <v>40</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint2/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint2/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parthxparab/Documents/Spring2020/CS555/Project04/CS-555-Agile_Project_Team/Sprint2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranavnair/Desktop/CS-555-Agile_Project_Team/Sprint2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CF732A-A96A-464E-B4EB-D98D7F57D418}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F298116-B22D-EC46-9534-B12793029B13}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="277">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1394,31 +1394,39 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>Burndown!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>m/d</c:formatCode>
-                <c:ptCount val="6"/>
+            <c:strRef>
+              <c:f>Burndown!$A$3:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>42411</c:v>
+                  <c:v>Sprint 1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42423</c:v>
+                  <c:v>Sprint 2</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="2">
+                  <c:v>Sprint 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sprint 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Burndown!$B$2:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>42415</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>42429</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42450</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1443,23 +1451,24 @@
         <c:axId val="1158123744"/>
         <c:axId val="1158126064"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="1158123744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1158126064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="1158126064"/>
         <c:scaling>
@@ -1468,7 +1477,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3048,7 +3057,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="A15" sqref="A15:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3239,10 +3248,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3254,55 +3263,101 @@
     <col min="6" max="6" width="14.33203125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
-        <v>42411</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="32">
+        <v>42415</v>
+      </c>
+      <c r="C2">
         <v>32</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>42423</v>
-      </c>
-      <c r="B3">
+      <c r="F2"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="2">
+        <v>42429</v>
+      </c>
+      <c r="C3">
         <v>24</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>238</v>
-      </c>
       <c r="E3">
-        <v>280</v>
-      </c>
-      <c r="F3" s="9">
-        <v>50.96</v>
+        <v>523</v>
+      </c>
+      <c r="F3">
+        <v>240</v>
+      </c>
+      <c r="G3" s="9">
+        <f>(E3-E2)/F3*60</f>
+        <v>130.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="7">
+        <v>42450</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>785</v>
+      </c>
+      <c r="F4" s="9">
+        <v>200</v>
+      </c>
+      <c r="G4" s="9">
+        <f>(E4-E3)/F4*60</f>
+        <v>78.600000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3317,8 +3372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:F20"/>
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3799,8 +3854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4288,7 +4343,7 @@
     <col min="2" max="2" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>

--- a/Sprint2/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint2/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parthxparab/Documents/Spring2020/CS555/Project04/CS-555-Agile_Project_Team/Sprint2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1CF732A-A96A-464E-B4EB-D98D7F57D418}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC355A3-ACEA-3149-B59C-0470EFA5F18F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,11 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">Burndown!$B$2:$B$6</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Burndown!$C$1</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Burndown!$C$2:$C$6</definedName>
+  </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -42,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="281">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -899,10 +904,24 @@
     <t>Starting project late</t>
   </si>
   <si>
-    <t>Communicating and discussing progress, practising pair programming and understanding concepts more clearly</t>
-  </si>
-  <si>
-    <t>Starting project late, Take more time to complete User stories</t>
+    <t>Sprint1</t>
+  </si>
+  <si>
+    <t>Sprint2</t>
+  </si>
+  <si>
+    <t>Sprint3</t>
+  </si>
+  <si>
+    <t>Sprint4</t>
+  </si>
+  <si>
+    <t>Starting project late, 
+Take more time to complete User stories</t>
+  </si>
+  <si>
+    <t>Communicating and discussing progress, 
+practising pair programming and understanding concepts more clearly</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1115,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1145,12 +1164,19 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1384,6 +1410,36 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1393,32 +1449,61 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Burndown!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Remaining Stories</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Burndown!$A$2:$A$7</c:f>
+              <c:f>Burndown!$B$2:$B$6</c:f>
               <c:numCache>
-                <c:formatCode>m/d</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>42411</c:v>
+                  <c:v>42410</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42423</c:v>
+                  <c:v>42427</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Burndown!$B$2:$B$7</c:f>
+              <c:f>Burndown!$C$2:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1426,7 +1511,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-11E8-C342-B214-D8822EBCC57B}"/>
+              <c16:uniqueId val="{00000000-7069-654D-88FA-D0D77CA9D9FB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1438,55 +1523,715 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1158123744"/>
-        <c:axId val="1158126064"/>
+        <c:axId val="1117593263"/>
+        <c:axId val="1117594895"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1158123744"/>
+        <c:axId val="1117593263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1158126064"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1117594895"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1158126064"/>
+        <c:axId val="1117594895"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1158123744"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1117593263"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1950,22 +2695,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>948267</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>160867</xdr:rowOff>
+      <xdr:colOff>817034</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>97367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>397934</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>25401</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1062567</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>131233</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0847261C-7E44-494E-AB95-FAF95A92D36F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2823,7 +3568,7 @@
       <c r="E23" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="F23" s="33"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="21" t="s">
@@ -3047,8 +3792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3239,70 +3984,116 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="5" width="8.33203125" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
-        <v>42411</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="35">
+        <v>42410</v>
+      </c>
+      <c r="C2">
         <v>32</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>42423</v>
-      </c>
-      <c r="B3">
+      <c r="F2"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" s="35">
+        <v>42427</v>
+      </c>
+      <c r="C3">
         <v>24</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>238</v>
-      </c>
       <c r="E3">
-        <v>280</v>
-      </c>
-      <c r="F3" s="9">
-        <v>50.96</v>
+        <v>476</v>
+      </c>
+      <c r="F3">
+        <v>240</v>
+      </c>
+      <c r="G3" s="9">
+        <f>(E3-E2)/F3*60</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" s="35">
+        <v>42444</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>692</v>
+      </c>
+      <c r="F4" s="36">
+        <v>200</v>
+      </c>
+      <c r="G4" s="9">
+        <f>(E4-E3)/F4*60</f>
+        <v>64.800000000000011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -3618,7 +4409,7 @@
       <c r="N6" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="O6" s="34" t="s">
+      <c r="O6" s="33" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3799,8 +4590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3868,7 +4659,7 @@
       <c r="C2" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>205</v>
       </c>
       <c r="E2">
@@ -3915,7 +4706,7 @@
       <c r="C3" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="32" t="s">
         <v>205</v>
       </c>
       <c r="E3">
@@ -3962,7 +4753,7 @@
       <c r="C4" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="32" t="s">
         <v>205</v>
       </c>
       <c r="E4">
@@ -4009,7 +4800,7 @@
       <c r="C5" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="32" t="s">
         <v>205</v>
       </c>
       <c r="E5">
@@ -4056,7 +4847,7 @@
       <c r="C6" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="32" t="s">
         <v>205</v>
       </c>
       <c r="E6">
@@ -4103,7 +4894,7 @@
       <c r="C7" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="32" t="s">
         <v>205</v>
       </c>
       <c r="E7">
@@ -4150,7 +4941,7 @@
       <c r="C8" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="32" t="s">
         <v>205</v>
       </c>
       <c r="E8">
@@ -4197,7 +4988,7 @@
       <c r="C9" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="32" t="s">
         <v>205</v>
       </c>
       <c r="E9">
@@ -4242,32 +5033,44 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" ht="44" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C16" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C20" t="s">
-        <v>276</v>
-      </c>
+      <c r="C20" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C16:G16"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4288,7 +5091,7 @@
     <col min="2" max="2" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4327,7 +5130,7 @@
       <c r="C2" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="34" t="s">
         <v>195</v>
       </c>
       <c r="E2">
@@ -4347,7 +5150,7 @@
       <c r="C3" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="34" t="s">
         <v>195</v>
       </c>
       <c r="E3">
@@ -4367,7 +5170,7 @@
       <c r="C4" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="34" t="s">
         <v>195</v>
       </c>
       <c r="E4">
@@ -4387,7 +5190,7 @@
       <c r="C5" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="34" t="s">
         <v>195</v>
       </c>
       <c r="E5">
@@ -4407,7 +5210,7 @@
       <c r="C6" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="34" t="s">
         <v>195</v>
       </c>
       <c r="E6">
@@ -4427,7 +5230,7 @@
       <c r="C7" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="34" t="s">
         <v>195</v>
       </c>
       <c r="E7">
@@ -4447,7 +5250,7 @@
       <c r="C8" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="34" t="s">
         <v>195</v>
       </c>
       <c r="E8">
@@ -4467,7 +5270,7 @@
       <c r="C9" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="34" t="s">
         <v>195</v>
       </c>
       <c r="E9">
@@ -4532,7 +5335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>

--- a/Sprint2/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint2/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parthxparab/Documents/Spring2020/CS555/Project04/CS-555-Agile_Project_Team/Sprint2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC355A3-ACEA-3149-B59C-0470EFA5F18F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73D07AE-92D6-554F-B84E-CB167892912C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,12 +23,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Burndown!$B$2:$B$6</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Burndown!$C$1</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Burndown!$C$2:$C$6</definedName>
-  </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1424,12 +1419,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1461,17 +1453,77 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Burndown!$B$2:$B$6</c:f>
@@ -1516,8 +1568,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1542,7 +1595,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -1558,10 +1611,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1576,6 +1626,8 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="5"/>
+        <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
         <c:axId val="1117594895"/>
@@ -1588,7 +1640,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1616,10 +1668,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1651,7 +1700,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1719,33 +1768,27 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1760,7 +1803,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1768,7 +1811,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1776,17 +1819,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -1795,9 +1835,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -1820,45 +1859,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1867,36 +1896,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="12700">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt2"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1912,21 +1937,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1960,17 +1980,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1979,14 +1999,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1998,26 +2017,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2031,17 +2044,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2050,17 +2062,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2069,17 +2081,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2088,27 +2099,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2116,11 +2124,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2128,17 +2144,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -2147,12 +2163,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2161,14 +2174,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2177,10 +2190,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -2189,7 +2199,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2210,10 +2220,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -2222,14 +2229,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3792,8 +3793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A19"/>
+    <sheetView topLeftCell="A15" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3987,7 +3988,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/Sprint2/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint2/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parthxparab/Documents/Spring2020/CS555/Project04/CS-555-Agile_Project_Team/Sprint2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73D07AE-92D6-554F-B84E-CB167892912C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EF29B7-31CE-324E-B09B-061AEF9ADBA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="281">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4591,8 +4591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="O1" sqref="J1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5080,19 +5080,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B9"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -5120,8 +5121,26 @@
       <c r="I1" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
         <v>122</v>
       </c>
@@ -5141,7 +5160,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
         <v>123</v>
       </c>
@@ -5161,7 +5180,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
         <v>126</v>
       </c>
@@ -5181,7 +5200,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
         <v>127</v>
       </c>
@@ -5201,7 +5220,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
         <v>130</v>
       </c>
@@ -5221,7 +5240,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="21" t="s">
         <v>131</v>
       </c>
@@ -5241,7 +5260,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="30" t="s">
         <v>134</v>
       </c>
@@ -5261,7 +5280,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="30" t="s">
         <v>135</v>
       </c>

--- a/Sprint2/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
+++ b/Sprint2/Team_Parth_Sanket_Vedadnya_Pranav.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/parthxparab/Documents/Spring2020/CS555/Project04/CS-555-Agile_Project_Team/Sprint2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vedadnya_98/Documents/GitHub/CS-555-Agile_Project_Team/Sprint2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EF29B7-31CE-324E-B09B-061AEF9ADBA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A29B4F-25EA-E449-BAA7-6D0AE1A5B48C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="289">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -917,6 +919,30 @@
   <si>
     <t>Communicating and discussing progress, 
 practising pair programming and understanding concepts more clearly</t>
+  </si>
+  <si>
+    <t>us34()</t>
+  </si>
+  <si>
+    <t>us20()</t>
+  </si>
+  <si>
+    <t>294-306</t>
+  </si>
+  <si>
+    <t>315-343</t>
+  </si>
+  <si>
+    <t>test_userstory34()</t>
+  </si>
+  <si>
+    <t>test_userstory20()</t>
+  </si>
+  <si>
+    <t>36-40</t>
+  </si>
+  <si>
+    <t>28-34</t>
   </si>
 </sst>
 </file>
@@ -1539,6 +1565,9 @@
                 <c:pt idx="2">
                   <c:v>42444</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>42463</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1556,6 +1585,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3186,8 +3218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3576,16 +3608,16 @@
         <v>163</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>84</v>
+        <v>145</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>186</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -3602,7 +3634,7 @@
         <v>186</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -3987,8 +4019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4090,6 +4122,18 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>277</v>
+      </c>
+      <c r="B5" s="13">
+        <v>42463</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>871</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -4592,7 +4636,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="O1" sqref="J1:O1"/>
+      <selection activeCell="G6" sqref="G6:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5082,8 +5126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5222,22 +5266,49 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>84</v>
+        <v>145</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>186</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E6">
         <v>40</v>
       </c>
       <c r="F6">
         <v>100</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>206</v>
+      </c>
+      <c r="J6" t="s">
+        <v>241</v>
+      </c>
+      <c r="K6" t="s">
+        <v>281</v>
+      </c>
+      <c r="L6" t="s">
+        <v>283</v>
+      </c>
+      <c r="M6" t="s">
+        <v>212</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -5251,13 +5322,40 @@
         <v>186</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E7">
         <v>40</v>
       </c>
       <c r="F7">
         <v>100</v>
+      </c>
+      <c r="G7">
+        <v>27</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>206</v>
+      </c>
+      <c r="J7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L7" t="s">
+        <v>284</v>
+      </c>
+      <c r="M7" t="s">
+        <v>212</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
@@ -5355,8 +5453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
